--- a/SPRINTS.xlsx
+++ b/SPRINTS.xlsx
@@ -5,16 +5,18 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ma-si\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wilso\OneDrive\Documentos\siac\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D42E239-27B3-4994-AFFA-356A63582ABD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BEDC4BD0-36D1-4D32-AD86-13FA9C805CBB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{E6A3ADF2-5C63-4D85-8488-BDDAB83922C1}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" activeTab="3" xr2:uid="{E6A3ADF2-5C63-4D85-8488-BDDAB83922C1}"/>
   </bookViews>
   <sheets>
     <sheet name="SPRINT 1" sheetId="1" r:id="rId1"/>
     <sheet name="SPRINT 2" sheetId="2" r:id="rId2"/>
+    <sheet name="SPRINT 3" sheetId="3" r:id="rId3"/>
+    <sheet name="SPRINT 4" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -26,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="39">
   <si>
     <t>Dia</t>
   </si>
@@ -38,12 +40,6 @@
   </si>
   <si>
     <t>Total Ideal</t>
-  </si>
-  <si>
-    <t>Acompanhamento Sprint 2 (2 semanas)</t>
-  </si>
-  <si>
-    <t>Acompanhamento Sprint 1 (2 semanas)</t>
   </si>
   <si>
     <t>Coluna1</t>
@@ -137,6 +133,18 @@
   </si>
   <si>
     <t>Coluna31</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Acompanhamento Sprint 1 </t>
+  </si>
+  <si>
+    <t>Acompanhamento Sprint 2</t>
+  </si>
+  <si>
+    <t>Acompanhamento Sprint 3</t>
+  </si>
+  <si>
+    <t>Acompanhamento Sprint 4</t>
   </si>
 </sst>
 </file>
@@ -330,19 +338,14 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="38">
+  <dxfs count="48">
     <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom/>
-      </border>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
       <fill>
@@ -351,74 +354,6 @@
           <bgColor rgb="FFFFFF00"/>
         </patternFill>
       </fill>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right/>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
     </dxf>
     <dxf>
       <fill>
@@ -427,22 +362,6 @@
           <bgColor rgb="FFFFFF00"/>
         </patternFill>
       </fill>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
     </dxf>
     <dxf>
       <fill>
@@ -451,516 +370,6 @@
           <bgColor rgb="FFFFFF00"/>
         </patternFill>
       </fill>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
     </dxf>
     <dxf>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -996,6 +405,675 @@
           <bgColor rgb="FFFFFF00"/>
         </patternFill>
       </fill>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1501,10 +1579,10 @@
                   <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>5</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>5</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2202,16 +2280,16 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>1</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>1</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>1</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="17">
                   <c:v>2</c:v>
@@ -2793,6 +2871,1800 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="pt-BR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="107"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="7"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="none" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="85000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="pt-BR"/>
+              <a:t>Sprint 3 Turquesa</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="none" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pt-BR"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="5.1025371828521432E-2"/>
+          <c:y val="0.17171296296296298"/>
+          <c:w val="0.91564129483814527"/>
+          <c:h val="0.6153546952464275"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'SPRINT 3'!$A$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Tarefas Planejadas</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="22225" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5">
+                  <a:shade val="86000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:ln>
+            <a:effectLst>
+              <a:glow rad="139700">
+                <a:schemeClr val="accent5">
+                  <a:shade val="86000"/>
+                  <a:satMod val="175000"/>
+                  <a:alpha val="14000"/>
+                </a:schemeClr>
+              </a:glow>
+            </a:effectLst>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'SPRINT 3'!$B$4:$AE$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="30"/>
+                <c:pt idx="0">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-E8EF-4CF4-9FE0-A24BACF1810A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'SPRINT 3'!$A$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Tarefas Finalizadas</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="22225" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5">
+                  <a:tint val="86000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:ln>
+            <a:effectLst>
+              <a:glow rad="139700">
+                <a:schemeClr val="accent5">
+                  <a:tint val="86000"/>
+                  <a:satMod val="175000"/>
+                  <a:alpha val="14000"/>
+                </a:schemeClr>
+              </a:glow>
+            </a:effectLst>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'SPRINT 3'!$B$5:$AE$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="30"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-E8EF-4CF4-9FE0-A24BACF1810A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'SPRINT 3'!$A$6</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Total Ideal</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="22225" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5">
+                  <a:tint val="58000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:ln>
+            <a:effectLst>
+              <a:glow rad="139700">
+                <a:schemeClr val="accent5">
+                  <a:tint val="58000"/>
+                  <a:satMod val="175000"/>
+                  <a:alpha val="14000"/>
+                </a:schemeClr>
+              </a:glow>
+            </a:effectLst>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'SPRINT 3'!$B$6:$AE$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="30"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-E8EF-4CF4-9FE0-A24BACF1810A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="397322824"/>
+        <c:axId val="543574520"/>
+        <c:extLst>
+          <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+            <c15:filteredLineSeries>
+              <c15:ser>
+                <c:idx val="0"/>
+                <c:order val="0"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'SPRINT 3'!$A$3</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>Dia</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:ln w="22225" cap="rnd">
+                    <a:solidFill>
+                      <a:schemeClr val="accent5">
+                        <a:shade val="58000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                  </a:ln>
+                  <a:effectLst>
+                    <a:glow rad="139700">
+                      <a:schemeClr val="accent5">
+                        <a:shade val="58000"/>
+                        <a:satMod val="175000"/>
+                        <a:alpha val="14000"/>
+                      </a:schemeClr>
+                    </a:glow>
+                  </a:effectLst>
+                </c:spPr>
+                <c:marker>
+                  <c:symbol val="none"/>
+                </c:marker>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'SPRINT 3'!$B$3:$AE$3</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="30"/>
+                      <c:pt idx="0">
+                        <c:v>1</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>2</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>3</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>4</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>5</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>6</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>7</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>8</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>9</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>10</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>11</c:v>
+                      </c:pt>
+                      <c:pt idx="11">
+                        <c:v>12</c:v>
+                      </c:pt>
+                      <c:pt idx="12">
+                        <c:v>13</c:v>
+                      </c:pt>
+                      <c:pt idx="13">
+                        <c:v>14</c:v>
+                      </c:pt>
+                      <c:pt idx="14">
+                        <c:v>15</c:v>
+                      </c:pt>
+                      <c:pt idx="15">
+                        <c:v>16</c:v>
+                      </c:pt>
+                      <c:pt idx="16">
+                        <c:v>17</c:v>
+                      </c:pt>
+                      <c:pt idx="17">
+                        <c:v>18</c:v>
+                      </c:pt>
+                      <c:pt idx="18">
+                        <c:v>19</c:v>
+                      </c:pt>
+                      <c:pt idx="19">
+                        <c:v>20</c:v>
+                      </c:pt>
+                      <c:pt idx="20">
+                        <c:v>21</c:v>
+                      </c:pt>
+                      <c:pt idx="21">
+                        <c:v>22</c:v>
+                      </c:pt>
+                      <c:pt idx="22">
+                        <c:v>23</c:v>
+                      </c:pt>
+                      <c:pt idx="23">
+                        <c:v>24</c:v>
+                      </c:pt>
+                      <c:pt idx="24">
+                        <c:v>25</c:v>
+                      </c:pt>
+                      <c:pt idx="25">
+                        <c:v>26</c:v>
+                      </c:pt>
+                      <c:pt idx="26">
+                        <c:v>27</c:v>
+                      </c:pt>
+                      <c:pt idx="27">
+                        <c:v>28</c:v>
+                      </c:pt>
+                      <c:pt idx="28">
+                        <c:v>29</c:v>
+                      </c:pt>
+                      <c:pt idx="29">
+                        <c:v>30</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:smooth val="0"/>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000003-E8EF-4CF4-9FE0-A24BACF1810A}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredLineSeries>
+          </c:ext>
+        </c:extLst>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="397322824"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:gradFill>
+                <a:gsLst>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="dk1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="0">
+                    <a:schemeClr val="dk1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="75000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-BR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="543574520"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="543574520"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:gradFill>
+                <a:gsLst>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="dk1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="0">
+                    <a:schemeClr val="dk1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="75000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-BR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="397322824"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="t"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pt-BR"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="pt-BR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="pt-BR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="107"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="7"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="none" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="85000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="pt-BR"/>
+              <a:t>Sprint 4 Turquesa</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="none" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pt-BR"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="5.1025371828521432E-2"/>
+          <c:y val="0.17171296296296298"/>
+          <c:w val="0.91564129483814527"/>
+          <c:h val="0.6153546952464275"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'SPRINT 4'!$A$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Tarefas Planejadas</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="22225" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5">
+                  <a:shade val="86000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:ln>
+            <a:effectLst>
+              <a:glow rad="139700">
+                <a:schemeClr val="accent5">
+                  <a:shade val="86000"/>
+                  <a:satMod val="175000"/>
+                  <a:alpha val="14000"/>
+                </a:schemeClr>
+              </a:glow>
+            </a:effectLst>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'SPRINT 4'!$B$4:$AE$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="30"/>
+                <c:pt idx="0">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-A783-4BDE-8A0B-A5A8173656FD}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'SPRINT 4'!$A$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Tarefas Finalizadas</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="22225" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5">
+                  <a:tint val="86000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:ln>
+            <a:effectLst>
+              <a:glow rad="139700">
+                <a:schemeClr val="accent5">
+                  <a:tint val="86000"/>
+                  <a:satMod val="175000"/>
+                  <a:alpha val="14000"/>
+                </a:schemeClr>
+              </a:glow>
+            </a:effectLst>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'SPRINT 4'!$B$5:$AE$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="30"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-A783-4BDE-8A0B-A5A8173656FD}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'SPRINT 4'!$A$6</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Total Ideal</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="22225" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5">
+                  <a:tint val="58000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:ln>
+            <a:effectLst>
+              <a:glow rad="139700">
+                <a:schemeClr val="accent5">
+                  <a:tint val="58000"/>
+                  <a:satMod val="175000"/>
+                  <a:alpha val="14000"/>
+                </a:schemeClr>
+              </a:glow>
+            </a:effectLst>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'SPRINT 4'!$B$6:$AE$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="30"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-A783-4BDE-8A0B-A5A8173656FD}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="397322824"/>
+        <c:axId val="543574520"/>
+        <c:extLst>
+          <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+            <c15:filteredLineSeries>
+              <c15:ser>
+                <c:idx val="0"/>
+                <c:order val="0"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'SPRINT 4'!$A$3</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>Dia</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:ln w="22225" cap="rnd">
+                    <a:solidFill>
+                      <a:schemeClr val="accent5">
+                        <a:shade val="58000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                  </a:ln>
+                  <a:effectLst>
+                    <a:glow rad="139700">
+                      <a:schemeClr val="accent5">
+                        <a:shade val="58000"/>
+                        <a:satMod val="175000"/>
+                        <a:alpha val="14000"/>
+                      </a:schemeClr>
+                    </a:glow>
+                  </a:effectLst>
+                </c:spPr>
+                <c:marker>
+                  <c:symbol val="none"/>
+                </c:marker>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'SPRINT 4'!$B$3:$AE$3</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="30"/>
+                      <c:pt idx="0">
+                        <c:v>1</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>2</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>3</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>4</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>5</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>6</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>7</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>8</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>9</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>10</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>11</c:v>
+                      </c:pt>
+                      <c:pt idx="11">
+                        <c:v>12</c:v>
+                      </c:pt>
+                      <c:pt idx="12">
+                        <c:v>13</c:v>
+                      </c:pt>
+                      <c:pt idx="13">
+                        <c:v>14</c:v>
+                      </c:pt>
+                      <c:pt idx="14">
+                        <c:v>15</c:v>
+                      </c:pt>
+                      <c:pt idx="15">
+                        <c:v>16</c:v>
+                      </c:pt>
+                      <c:pt idx="16">
+                        <c:v>17</c:v>
+                      </c:pt>
+                      <c:pt idx="17">
+                        <c:v>18</c:v>
+                      </c:pt>
+                      <c:pt idx="18">
+                        <c:v>19</c:v>
+                      </c:pt>
+                      <c:pt idx="19">
+                        <c:v>20</c:v>
+                      </c:pt>
+                      <c:pt idx="20">
+                        <c:v>21</c:v>
+                      </c:pt>
+                      <c:pt idx="21">
+                        <c:v>22</c:v>
+                      </c:pt>
+                      <c:pt idx="22">
+                        <c:v>23</c:v>
+                      </c:pt>
+                      <c:pt idx="23">
+                        <c:v>24</c:v>
+                      </c:pt>
+                      <c:pt idx="24">
+                        <c:v>25</c:v>
+                      </c:pt>
+                      <c:pt idx="25">
+                        <c:v>26</c:v>
+                      </c:pt>
+                      <c:pt idx="26">
+                        <c:v>27</c:v>
+                      </c:pt>
+                      <c:pt idx="27">
+                        <c:v>28</c:v>
+                      </c:pt>
+                      <c:pt idx="28">
+                        <c:v>29</c:v>
+                      </c:pt>
+                      <c:pt idx="29">
+                        <c:v>30</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:smooth val="0"/>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000003-A783-4BDE-8A0B-A5A8173656FD}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredLineSeries>
+          </c:ext>
+        </c:extLst>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="397322824"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:gradFill>
+                <a:gsLst>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="dk1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="0">
+                    <a:schemeClr val="dk1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="75000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-BR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="543574520"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="543574520"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:gradFill>
+                <a:gsLst>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="dk1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="0">
+                    <a:schemeClr val="dk1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="75000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-BR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="397322824"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="t"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pt-BR"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="pt-BR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="withinLinear" id="18">
   <a:schemeClr val="accent5"/>
@@ -2800,6 +4672,18 @@
 </file>
 
 <file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="withinLinear" id="18">
+  <a:schemeClr val="accent5"/>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="withinLinear" id="18">
+  <a:schemeClr val="accent5"/>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="withinLinear" id="18">
   <a:schemeClr val="accent5"/>
 </cs:colorStyle>
@@ -3903,20 +5787,1118 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="236">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="1" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="15000"/>
+        <a:lumOff val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:effectRef>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:miter lim="800000"/>
+      </a:ln>
+      <a:effectLst>
+        <a:glow rad="63500">
+          <a:schemeClr val="phClr">
+            <a:satMod val="175000"/>
+            <a:alpha val="25000"/>
+          </a:schemeClr>
+        </a:glow>
+      </a:effectLst>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:effectRef>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:miter lim="800000"/>
+      </a:ln>
+      <a:effectLst>
+        <a:glow rad="63500">
+          <a:schemeClr val="phClr">
+            <a:satMod val="175000"/>
+            <a:alpha val="25000"/>
+          </a:schemeClr>
+        </a:glow>
+      </a:effectLst>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:effectRef>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="22225" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+      <a:effectLst>
+        <a:glow rad="139700">
+          <a:schemeClr val="phClr">
+            <a:satMod val="175000"/>
+            <a:alpha val="14000"/>
+          </a:schemeClr>
+        </a:glow>
+      </a:effectLst>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:effectRef>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr">
+          <a:lumMod val="60000"/>
+          <a:lumOff val="40000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:effectLst>
+        <a:glow rad="63500">
+          <a:schemeClr val="phClr">
+            <a:satMod val="175000"/>
+            <a:alpha val="25000"/>
+          </a:schemeClr>
+        </a:glow>
+      </a:effectLst>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="4"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="50000"/>
+          <a:lumOff val="50000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:gradFill>
+          <a:gsLst>
+            <a:gs pos="100000">
+              <a:schemeClr val="dk1">
+                <a:lumMod val="75000"/>
+                <a:lumOff val="25000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="0">
+              <a:schemeClr val="dk1">
+                <a:lumMod val="65000"/>
+                <a:lumOff val="35000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:gradFill>
+          <a:gsLst>
+            <a:gs pos="100000">
+              <a:schemeClr val="dk1">
+                <a:lumMod val="75000"/>
+                <a:lumOff val="25000"/>
+                <a:alpha val="25000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="0">
+              <a:schemeClr val="dk1">
+                <a:lumMod val="65000"/>
+                <a:lumOff val="35000"/>
+                <a:alpha val="25000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="1" kern="1200" cap="none" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="25400" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:alpha val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1">
+          <a:lumMod val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="236">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="1" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="15000"/>
+        <a:lumOff val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:effectRef>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:miter lim="800000"/>
+      </a:ln>
+      <a:effectLst>
+        <a:glow rad="63500">
+          <a:schemeClr val="phClr">
+            <a:satMod val="175000"/>
+            <a:alpha val="25000"/>
+          </a:schemeClr>
+        </a:glow>
+      </a:effectLst>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:effectRef>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:miter lim="800000"/>
+      </a:ln>
+      <a:effectLst>
+        <a:glow rad="63500">
+          <a:schemeClr val="phClr">
+            <a:satMod val="175000"/>
+            <a:alpha val="25000"/>
+          </a:schemeClr>
+        </a:glow>
+      </a:effectLst>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:effectRef>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="22225" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+      <a:effectLst>
+        <a:glow rad="139700">
+          <a:schemeClr val="phClr">
+            <a:satMod val="175000"/>
+            <a:alpha val="14000"/>
+          </a:schemeClr>
+        </a:glow>
+      </a:effectLst>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:effectRef>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr">
+          <a:lumMod val="60000"/>
+          <a:lumOff val="40000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:effectLst>
+        <a:glow rad="63500">
+          <a:schemeClr val="phClr">
+            <a:satMod val="175000"/>
+            <a:alpha val="25000"/>
+          </a:schemeClr>
+        </a:glow>
+      </a:effectLst>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="4"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="50000"/>
+          <a:lumOff val="50000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:gradFill>
+          <a:gsLst>
+            <a:gs pos="100000">
+              <a:schemeClr val="dk1">
+                <a:lumMod val="75000"/>
+                <a:lumOff val="25000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="0">
+              <a:schemeClr val="dk1">
+                <a:lumMod val="65000"/>
+                <a:lumOff val="35000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:gradFill>
+          <a:gsLst>
+            <a:gs pos="100000">
+              <a:schemeClr val="dk1">
+                <a:lumMod val="75000"/>
+                <a:lumOff val="25000"/>
+                <a:alpha val="25000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="0">
+              <a:schemeClr val="dk1">
+                <a:lumMod val="65000"/>
+                <a:lumOff val="35000"/>
+                <a:alpha val="25000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="1" kern="1200" cap="none" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="25400" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:alpha val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1">
+          <a:lumMod val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>259080</xdr:colOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>19051</xdr:colOff>
       <xdr:row>6</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
+      <xdr:rowOff>57151</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>472440</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>144780</xdr:rowOff>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>152401</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -3948,14 +6930,14 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>114300</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>110490</xdr:rowOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>2581275</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>419100</xdr:colOff>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
       <xdr:row>21</xdr:row>
       <xdr:rowOff>110490</xdr:rowOff>
     </xdr:to>
@@ -3985,9 +6967,95 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>1343025</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>144780</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Gráfico 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{388729E4-964E-4BF3-AE30-08B9171E2324}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>2590801</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>144780</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Gráfico 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0885C498-E48A-4DB2-8936-7796E4C5E138}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{256EBF5F-BE2C-4B8B-9295-C1E979D8A19F}" name="Tabela1" displayName="Tabela1" ref="A1:AE6" totalsRowShown="0" headerRowDxfId="33">
-  <autoFilter ref="A1:AE6" xr:uid="{256EBF5F-BE2C-4B8B-9295-C1E979D8A19F}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{256EBF5F-BE2C-4B8B-9295-C1E979D8A19F}" name="Tabela1" displayName="Tabela1" ref="A1:AE7" totalsRowShown="0" headerRowDxfId="47">
+  <autoFilter ref="A1:AE7" xr:uid="{256EBF5F-BE2C-4B8B-9295-C1E979D8A19F}"/>
   <tableColumns count="31">
     <tableColumn id="1" xr3:uid="{BB76A76F-66A5-4145-8D45-E464F507A416}" name="Coluna1"/>
     <tableColumn id="2" xr3:uid="{458CA724-6294-406D-A515-911AEF66BD94}" name="Coluna2"/>
@@ -3995,8 +7063,8 @@
     <tableColumn id="4" xr3:uid="{D209AFE8-38E3-41C1-B05D-9A17B4CC1AA4}" name="Coluna4"/>
     <tableColumn id="5" xr3:uid="{9D82D7DC-37FE-4B2A-B2E9-290175394EEA}" name="Coluna5"/>
     <tableColumn id="6" xr3:uid="{C68DDB1B-D3A4-40BB-8C61-1EC9CE6B67DC}" name="Coluna6"/>
-    <tableColumn id="7" xr3:uid="{24C8114E-7F90-4EB6-8FCF-D08ED082F073}" name="Coluna7" dataDxfId="37"/>
-    <tableColumn id="8" xr3:uid="{F1C31B32-8B9F-4B7A-9E89-C040BB849AD6}" name="Coluna8" dataDxfId="36"/>
+    <tableColumn id="7" xr3:uid="{24C8114E-7F90-4EB6-8FCF-D08ED082F073}" name="Coluna7" dataDxfId="46"/>
+    <tableColumn id="8" xr3:uid="{F1C31B32-8B9F-4B7A-9E89-C040BB849AD6}" name="Coluna8" dataDxfId="45"/>
     <tableColumn id="9" xr3:uid="{54534A1E-A89A-4BAE-8EF5-3B112D43B00E}" name="Coluna9"/>
     <tableColumn id="10" xr3:uid="{74246D5F-39B1-44E2-A941-6587C4B36120}" name="Coluna10"/>
     <tableColumn id="11" xr3:uid="{6A0BEBFF-5552-449D-9060-ABCED6D2FCF8}" name="Coluna11"/>
@@ -4016,8 +7084,8 @@
     <tableColumn id="25" xr3:uid="{319C5AE8-4D7E-49B5-A8D6-2675F5B31982}" name="Coluna25"/>
     <tableColumn id="26" xr3:uid="{366CF631-B9E7-461B-8B57-EFFF202CEA24}" name="Coluna26"/>
     <tableColumn id="27" xr3:uid="{90A3ED47-0770-4042-9AD7-772209099822}" name="Coluna27"/>
-    <tableColumn id="28" xr3:uid="{6FBABBE6-59A3-45D3-8035-B7968C12823B}" name="Coluna28" dataDxfId="35"/>
-    <tableColumn id="29" xr3:uid="{53963905-36AD-4CE8-B5EB-EFDACFC2A367}" name="Coluna29" dataDxfId="34"/>
+    <tableColumn id="28" xr3:uid="{6FBABBE6-59A3-45D3-8035-B7968C12823B}" name="Coluna28" dataDxfId="44"/>
+    <tableColumn id="29" xr3:uid="{53963905-36AD-4CE8-B5EB-EFDACFC2A367}" name="Coluna29" dataDxfId="43"/>
     <tableColumn id="30" xr3:uid="{B38111CD-4C2E-414C-8699-6CE4FAB34CCD}" name="Coluna30"/>
     <tableColumn id="31" xr3:uid="{D07743F1-21EE-4517-A34D-A2D4AEBA4211}" name="Coluna31"/>
   </tableColumns>
@@ -4026,40 +7094,120 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{9518DC88-E72B-4C17-BC2A-27F909C6CAF9}" name="Tabela2" displayName="Tabela2" ref="A1:AE5" totalsRowShown="0" headerRowDxfId="0" headerRowBorderDxfId="31" tableBorderDxfId="32" totalsRowBorderDxfId="30">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{9518DC88-E72B-4C17-BC2A-27F909C6CAF9}" name="Tabela2" displayName="Tabela2" ref="A1:AE5" totalsRowShown="0" headerRowDxfId="42" headerRowBorderDxfId="41" tableBorderDxfId="40" totalsRowBorderDxfId="39">
   <autoFilter ref="A1:AE5" xr:uid="{9518DC88-E72B-4C17-BC2A-27F909C6CAF9}"/>
   <tableColumns count="31">
-    <tableColumn id="1" xr3:uid="{5A96FAD4-D4D8-4CEB-AE75-5038CBCEE9B7}" name="Acompanhamento Sprint 2 (2 semanas)" dataDxfId="29"/>
-    <tableColumn id="2" xr3:uid="{ACF0CF1D-9996-483C-B3A0-A72ABFFB4003}" name="Coluna1" dataDxfId="28"/>
-    <tableColumn id="3" xr3:uid="{DFFBB42B-9523-4C58-B20A-5FE4E52E7FF9}" name="Coluna2" dataDxfId="27"/>
-    <tableColumn id="4" xr3:uid="{32631B53-4013-4744-BFA5-E11B9D0D72DF}" name="Coluna3" dataDxfId="26"/>
-    <tableColumn id="5" xr3:uid="{D2BCC735-A187-4A62-B129-E01B9DC3C137}" name="Coluna4" dataDxfId="25"/>
-    <tableColumn id="6" xr3:uid="{92F87C1B-4241-45B1-9A7D-5F6539637079}" name="Coluna5" dataDxfId="24"/>
-    <tableColumn id="7" xr3:uid="{F842A71B-5AFD-4412-924F-8416EEA3CD91}" name="Coluna6" dataDxfId="23"/>
-    <tableColumn id="8" xr3:uid="{0FD670D9-FA0B-4250-BE86-261FB937C426}" name="Coluna7" dataDxfId="22"/>
-    <tableColumn id="9" xr3:uid="{7917C37D-0175-4222-8A48-47FCDC12D552}" name="Coluna8" dataDxfId="21"/>
-    <tableColumn id="10" xr3:uid="{33548F91-D528-45A4-9132-C8AF47AB1131}" name="Coluna9" dataDxfId="20"/>
-    <tableColumn id="11" xr3:uid="{45949857-193F-420E-BA93-648C65597791}" name="Coluna10" dataDxfId="19"/>
-    <tableColumn id="12" xr3:uid="{90AB612A-6832-4B5E-B755-480BC6C44BC3}" name="Coluna11" dataDxfId="18"/>
-    <tableColumn id="13" xr3:uid="{5F2DC8F7-4694-4CE7-8EFB-843038C8C3DF}" name="Coluna12" dataDxfId="17"/>
-    <tableColumn id="14" xr3:uid="{41A4BE53-5141-4998-8A29-946BCF3C041B}" name="Coluna13" dataDxfId="16"/>
-    <tableColumn id="15" xr3:uid="{3CB15139-BDBA-4BE1-8CF0-1E63085ADCD4}" name="Coluna14" dataDxfId="15"/>
-    <tableColumn id="16" xr3:uid="{4CC316DC-1404-4216-B6BA-DF26D6573C5D}" name="Coluna15" dataDxfId="14"/>
-    <tableColumn id="17" xr3:uid="{E04FF419-7F9E-4276-BE00-0CAE0BB85066}" name="Coluna16" dataDxfId="13"/>
-    <tableColumn id="18" xr3:uid="{38AE6AAD-8CCA-44D4-9DD5-504FEFA73E7B}" name="Coluna17" dataDxfId="12"/>
-    <tableColumn id="19" xr3:uid="{F63398AB-644C-481A-98FD-8F55A074DB7C}" name="Coluna18" dataDxfId="11"/>
-    <tableColumn id="20" xr3:uid="{675AAE77-9950-48C0-BC78-DDAECD79AD2F}" name="Coluna19" dataDxfId="10"/>
-    <tableColumn id="21" xr3:uid="{00102A97-07DC-40CC-8C74-0DC39887B9B9}" name="Coluna20" dataDxfId="9"/>
-    <tableColumn id="22" xr3:uid="{DDC93F7E-BFC7-41C6-BD57-5DE8DA44FB9E}" name="Coluna21" dataDxfId="8"/>
-    <tableColumn id="23" xr3:uid="{2E0BF6DA-C204-4360-A7CA-7A728BA04DE1}" name="Coluna22" dataDxfId="7"/>
-    <tableColumn id="24" xr3:uid="{8984273E-70A6-4C3D-96E5-9285783EF688}" name="Coluna23" dataDxfId="6"/>
-    <tableColumn id="25" xr3:uid="{5FD44513-EE5E-4831-A211-4DFF388E8819}" name="Coluna24" dataDxfId="5"/>
-    <tableColumn id="26" xr3:uid="{7398BFFD-D124-4028-A01A-76AD89378716}" name="Coluna25" dataDxfId="4"/>
-    <tableColumn id="27" xr3:uid="{23BD904B-CA71-4343-BF44-93CFF8A33B05}" name="Coluna26" dataDxfId="3"/>
+    <tableColumn id="1" xr3:uid="{5A96FAD4-D4D8-4CEB-AE75-5038CBCEE9B7}" name="Acompanhamento Sprint 2" dataDxfId="38"/>
+    <tableColumn id="2" xr3:uid="{ACF0CF1D-9996-483C-B3A0-A72ABFFB4003}" name="Coluna1" dataDxfId="37"/>
+    <tableColumn id="3" xr3:uid="{DFFBB42B-9523-4C58-B20A-5FE4E52E7FF9}" name="Coluna2" dataDxfId="36"/>
+    <tableColumn id="4" xr3:uid="{32631B53-4013-4744-BFA5-E11B9D0D72DF}" name="Coluna3" dataDxfId="35"/>
+    <tableColumn id="5" xr3:uid="{D2BCC735-A187-4A62-B129-E01B9DC3C137}" name="Coluna4" dataDxfId="34"/>
+    <tableColumn id="6" xr3:uid="{92F87C1B-4241-45B1-9A7D-5F6539637079}" name="Coluna5" dataDxfId="33"/>
+    <tableColumn id="7" xr3:uid="{F842A71B-5AFD-4412-924F-8416EEA3CD91}" name="Coluna6" dataDxfId="32"/>
+    <tableColumn id="8" xr3:uid="{0FD670D9-FA0B-4250-BE86-261FB937C426}" name="Coluna7" dataDxfId="31"/>
+    <tableColumn id="9" xr3:uid="{7917C37D-0175-4222-8A48-47FCDC12D552}" name="Coluna8" dataDxfId="30"/>
+    <tableColumn id="10" xr3:uid="{33548F91-D528-45A4-9132-C8AF47AB1131}" name="Coluna9" dataDxfId="29"/>
+    <tableColumn id="11" xr3:uid="{45949857-193F-420E-BA93-648C65597791}" name="Coluna10" dataDxfId="28"/>
+    <tableColumn id="12" xr3:uid="{90AB612A-6832-4B5E-B755-480BC6C44BC3}" name="Coluna11" dataDxfId="27"/>
+    <tableColumn id="13" xr3:uid="{5F2DC8F7-4694-4CE7-8EFB-843038C8C3DF}" name="Coluna12" dataDxfId="26"/>
+    <tableColumn id="14" xr3:uid="{41A4BE53-5141-4998-8A29-946BCF3C041B}" name="Coluna13" dataDxfId="25"/>
+    <tableColumn id="15" xr3:uid="{3CB15139-BDBA-4BE1-8CF0-1E63085ADCD4}" name="Coluna14" dataDxfId="24"/>
+    <tableColumn id="16" xr3:uid="{4CC316DC-1404-4216-B6BA-DF26D6573C5D}" name="Coluna15" dataDxfId="23"/>
+    <tableColumn id="17" xr3:uid="{E04FF419-7F9E-4276-BE00-0CAE0BB85066}" name="Coluna16" dataDxfId="22"/>
+    <tableColumn id="18" xr3:uid="{38AE6AAD-8CCA-44D4-9DD5-504FEFA73E7B}" name="Coluna17" dataDxfId="21"/>
+    <tableColumn id="19" xr3:uid="{F63398AB-644C-481A-98FD-8F55A074DB7C}" name="Coluna18" dataDxfId="20"/>
+    <tableColumn id="20" xr3:uid="{675AAE77-9950-48C0-BC78-DDAECD79AD2F}" name="Coluna19" dataDxfId="19"/>
+    <tableColumn id="21" xr3:uid="{00102A97-07DC-40CC-8C74-0DC39887B9B9}" name="Coluna20" dataDxfId="18"/>
+    <tableColumn id="22" xr3:uid="{DDC93F7E-BFC7-41C6-BD57-5DE8DA44FB9E}" name="Coluna21" dataDxfId="17"/>
+    <tableColumn id="23" xr3:uid="{2E0BF6DA-C204-4360-A7CA-7A728BA04DE1}" name="Coluna22" dataDxfId="16"/>
+    <tableColumn id="24" xr3:uid="{8984273E-70A6-4C3D-96E5-9285783EF688}" name="Coluna23" dataDxfId="15"/>
+    <tableColumn id="25" xr3:uid="{5FD44513-EE5E-4831-A211-4DFF388E8819}" name="Coluna24" dataDxfId="14"/>
+    <tableColumn id="26" xr3:uid="{7398BFFD-D124-4028-A01A-76AD89378716}" name="Coluna25" dataDxfId="13"/>
+    <tableColumn id="27" xr3:uid="{23BD904B-CA71-4343-BF44-93CFF8A33B05}" name="Coluna26" dataDxfId="12"/>
     <tableColumn id="28" xr3:uid="{AE5DD505-B352-449F-A277-4F1F954D2874}" name="Coluna27"/>
     <tableColumn id="29" xr3:uid="{FD46B26E-2CFC-4F48-B94C-9DECB6A1A768}" name="Coluna28"/>
-    <tableColumn id="30" xr3:uid="{C006F486-01B2-40FF-9116-A64773445FFA}" name="Coluna29" dataDxfId="2"/>
-    <tableColumn id="31" xr3:uid="{4C192E9C-318C-417F-8169-8C3BDB6A3632}" name="Coluna30" dataDxfId="1"/>
+    <tableColumn id="30" xr3:uid="{C006F486-01B2-40FF-9116-A64773445FFA}" name="Coluna29" dataDxfId="11"/>
+    <tableColumn id="31" xr3:uid="{4C192E9C-318C-417F-8169-8C3BDB6A3632}" name="Coluna30" dataDxfId="10"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium6" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{383D07C3-2DB5-40CE-B724-778257BCA618}" name="Tabela14" displayName="Tabela14" ref="A1:AE6" totalsRowShown="0" headerRowDxfId="9">
+  <autoFilter ref="A1:AE6" xr:uid="{256EBF5F-BE2C-4B8B-9295-C1E979D8A19F}"/>
+  <tableColumns count="31">
+    <tableColumn id="1" xr3:uid="{C1778B28-699B-4559-B8A7-1E840C092B2B}" name="Coluna1"/>
+    <tableColumn id="2" xr3:uid="{8CCA2CDF-C74F-4101-9D55-95ED44338A8A}" name="Coluna2"/>
+    <tableColumn id="3" xr3:uid="{6AFBC2EA-D25A-40E2-9AF9-D7E2F7199CD6}" name="Coluna3"/>
+    <tableColumn id="4" xr3:uid="{BF453C57-3D14-4036-BD91-817862EACF17}" name="Coluna4"/>
+    <tableColumn id="5" xr3:uid="{3EBF37B7-774C-44E0-92B6-3CDB7330E0A2}" name="Coluna5"/>
+    <tableColumn id="6" xr3:uid="{9CB6E864-08CE-4302-9118-3806EDCECCB1}" name="Coluna6"/>
+    <tableColumn id="7" xr3:uid="{44C7F9CB-8C1F-4F86-BFAF-68AAAC357663}" name="Coluna7" dataDxfId="8"/>
+    <tableColumn id="8" xr3:uid="{105A8C6C-65EE-44B9-8998-367BD68417F9}" name="Coluna8" dataDxfId="7"/>
+    <tableColumn id="9" xr3:uid="{971798D2-F987-4F20-A8CC-55022F9D63F4}" name="Coluna9"/>
+    <tableColumn id="10" xr3:uid="{285CF163-DFF9-4F0F-80A8-852E8C71C9C6}" name="Coluna10"/>
+    <tableColumn id="11" xr3:uid="{083EC5B2-3E36-49E3-846B-348BE6D0D655}" name="Coluna11"/>
+    <tableColumn id="12" xr3:uid="{4FD72B74-8D61-4698-AE97-80A0CF9110E6}" name="Coluna12"/>
+    <tableColumn id="13" xr3:uid="{C64EA1A4-600B-43BB-91D5-72218BA01411}" name="Coluna13"/>
+    <tableColumn id="14" xr3:uid="{26DAFADB-3FE9-4D61-B11E-582A1D25D64F}" name="Coluna14"/>
+    <tableColumn id="15" xr3:uid="{7C1E3056-49A2-40DB-846B-9C178BC71901}" name="Coluna15"/>
+    <tableColumn id="16" xr3:uid="{BBD01724-8519-4BD4-8139-DE66C1A88068}" name="Coluna16"/>
+    <tableColumn id="17" xr3:uid="{CFDC8687-DB91-491B-85CC-8DBECCC8E783}" name="Coluna17"/>
+    <tableColumn id="18" xr3:uid="{EFB9279D-BA8E-47BC-844F-FA8091C927E2}" name="Coluna18"/>
+    <tableColumn id="19" xr3:uid="{452DEC52-DA7A-4276-B9F0-D05994B10A90}" name="Coluna19"/>
+    <tableColumn id="20" xr3:uid="{672CA924-88FE-41A3-A029-2ACF09D81050}" name="Coluna20"/>
+    <tableColumn id="21" xr3:uid="{CB5C71ED-2F7C-4FCA-BE44-D5A98C9D0111}" name="Coluna21"/>
+    <tableColumn id="22" xr3:uid="{338B3A81-DC14-45E9-A48B-07CE79A0C980}" name="Coluna22"/>
+    <tableColumn id="23" xr3:uid="{4E4D6BCE-D9DE-48D5-AF07-46F9E4065316}" name="Coluna23"/>
+    <tableColumn id="24" xr3:uid="{E4132441-19AC-4706-B5B2-C5A4198A9D09}" name="Coluna24"/>
+    <tableColumn id="25" xr3:uid="{10AEF7F6-939C-40A3-97FF-31DCFD021353}" name="Coluna25"/>
+    <tableColumn id="26" xr3:uid="{EFF8C337-E359-447F-A66C-2F5FF03C131E}" name="Coluna26"/>
+    <tableColumn id="27" xr3:uid="{1F246562-7974-40F3-A024-98B2A4D875E7}" name="Coluna27"/>
+    <tableColumn id="28" xr3:uid="{AA7B3E02-331A-4A9E-9470-39ADF8249EC1}" name="Coluna28" dataDxfId="6"/>
+    <tableColumn id="29" xr3:uid="{14586F69-69C1-49D8-8880-F75B5EF5D872}" name="Coluna29" dataDxfId="5"/>
+    <tableColumn id="30" xr3:uid="{566B5226-4057-4351-9E12-CE1C45BD72E5}" name="Coluna30"/>
+    <tableColumn id="31" xr3:uid="{CEADA483-12BF-40DF-B222-634DC23F0F0B}" name="Coluna31"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium6" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{7FA165B4-2D8B-4D88-91DE-6751945ECA4A}" name="Tabela145" displayName="Tabela145" ref="A1:AE7" totalsRowShown="0" headerRowDxfId="4">
+  <autoFilter ref="A1:AE7" xr:uid="{256EBF5F-BE2C-4B8B-9295-C1E979D8A19F}"/>
+  <tableColumns count="31">
+    <tableColumn id="1" xr3:uid="{D1470284-220E-4FB0-BB23-A6AA8B2757F1}" name="Coluna1"/>
+    <tableColumn id="2" xr3:uid="{EBB751AE-69F4-44BB-BB4A-C10193938364}" name="Coluna2"/>
+    <tableColumn id="3" xr3:uid="{26C4B3C5-DB43-4AD6-931F-9B517F5B1EBC}" name="Coluna3"/>
+    <tableColumn id="4" xr3:uid="{EE7FF89D-BF71-47A1-805C-BBA1C7606CA5}" name="Coluna4"/>
+    <tableColumn id="5" xr3:uid="{FF09885D-D343-4C29-A452-19761A4A11E4}" name="Coluna5"/>
+    <tableColumn id="6" xr3:uid="{E6A7AE45-B1C0-40DF-BAD1-358643D35BAC}" name="Coluna6"/>
+    <tableColumn id="7" xr3:uid="{9106AD3E-DAC9-4282-BCA3-35B78E9A7A37}" name="Coluna7" dataDxfId="3"/>
+    <tableColumn id="8" xr3:uid="{65922112-488F-47A8-9092-ABD3338ED836}" name="Coluna8" dataDxfId="2"/>
+    <tableColumn id="9" xr3:uid="{63CFDFFB-1BE5-42B5-B818-BB8B3ED1E6C8}" name="Coluna9"/>
+    <tableColumn id="10" xr3:uid="{8ECB94A0-2CDD-44EB-8B50-2D3741DA9801}" name="Coluna10"/>
+    <tableColumn id="11" xr3:uid="{5ACAAAE4-50A4-4D37-8DB1-0F50AE175D5B}" name="Coluna11"/>
+    <tableColumn id="12" xr3:uid="{48488CEB-75C3-46AA-8712-E24AA575EE7D}" name="Coluna12"/>
+    <tableColumn id="13" xr3:uid="{58667828-1C3E-42CA-B363-398B115C947C}" name="Coluna13"/>
+    <tableColumn id="14" xr3:uid="{EF053E4F-86BC-4EFE-9B50-E8E73FE4DD1C}" name="Coluna14"/>
+    <tableColumn id="15" xr3:uid="{2E12627E-2D2D-428B-884A-24CBC37E9BDF}" name="Coluna15"/>
+    <tableColumn id="16" xr3:uid="{34790917-2B2B-406A-A1ED-291C465EA6AB}" name="Coluna16"/>
+    <tableColumn id="17" xr3:uid="{29435730-B538-4407-8D0D-0E195C82E9AD}" name="Coluna17"/>
+    <tableColumn id="18" xr3:uid="{B326B45F-971D-4DC4-93A1-C1D1D2758385}" name="Coluna18"/>
+    <tableColumn id="19" xr3:uid="{BA788A41-A3E2-412D-9A18-DBA60CD62C8B}" name="Coluna19"/>
+    <tableColumn id="20" xr3:uid="{B786132B-2871-4602-8F59-6126DF2B4141}" name="Coluna20"/>
+    <tableColumn id="21" xr3:uid="{8DAEA4DE-4A33-4F4F-A55F-E3EA4A167152}" name="Coluna21"/>
+    <tableColumn id="22" xr3:uid="{126AE4F3-DCF2-46C9-8ADB-FFB7BFE216FA}" name="Coluna22"/>
+    <tableColumn id="23" xr3:uid="{FFAEF157-655E-4130-BB34-4642540FA75D}" name="Coluna23"/>
+    <tableColumn id="24" xr3:uid="{F139BE5C-627A-4502-ACF0-E821FF739A7E}" name="Coluna24"/>
+    <tableColumn id="25" xr3:uid="{F7FA7D15-26DA-4E3A-8923-61DF93B04A43}" name="Coluna25"/>
+    <tableColumn id="26" xr3:uid="{5EA7E401-0D00-4D9A-90A5-882CDEC32374}" name="Coluna26"/>
+    <tableColumn id="27" xr3:uid="{C4CEF0FA-88A1-4B1C-939F-5B9A169D4FC3}" name="Coluna27"/>
+    <tableColumn id="28" xr3:uid="{CFE9246F-F887-4E19-AADE-E03E5EE3A1C7}" name="Coluna28" dataDxfId="1"/>
+    <tableColumn id="29" xr3:uid="{CD4B9F54-1C30-4DEB-B564-EB219463D7DD}" name="Coluna29" dataDxfId="0"/>
+    <tableColumn id="30" xr3:uid="{6D6FE87D-5315-4C73-B239-2740817109CE}" name="Coluna30"/>
+    <tableColumn id="31" xr3:uid="{AE0DB854-79CF-409A-A45D-BA11D915C5E9}" name="Coluna31"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium6" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -4382,117 +7530,116 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A07C628C-D3B3-4661-B767-80BA94FBC4FF}">
-  <dimension ref="A1:AE6"/>
+  <dimension ref="A1:AE7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L31" sqref="L31"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="AH19" sqref="AH19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="17.69921875" customWidth="1"/>
-    <col min="2" max="9" width="9.296875" customWidth="1"/>
-    <col min="10" max="31" width="10.296875" customWidth="1"/>
+    <col min="1" max="1" width="23.125" customWidth="1"/>
+    <col min="2" max="31" width="3.875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:31">
       <c r="A1" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="9" t="s">
+      <c r="D1" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="C1" s="9" t="s">
+      <c r="E1" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="D1" s="9" t="s">
+      <c r="F1" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="E1" s="9" t="s">
+      <c r="G1" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="F1" s="9" t="s">
+      <c r="H1" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="G1" s="9" t="s">
+      <c r="I1" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="H1" s="9" t="s">
+      <c r="J1" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="I1" s="9" t="s">
+      <c r="K1" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="J1" s="9" t="s">
+      <c r="L1" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="K1" s="9" t="s">
+      <c r="M1" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="L1" s="9" t="s">
+      <c r="N1" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="M1" s="9" t="s">
+      <c r="O1" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="N1" s="9" t="s">
+      <c r="P1" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="O1" s="9" t="s">
+      <c r="Q1" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="P1" s="9" t="s">
+      <c r="R1" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="Q1" s="9" t="s">
+      <c r="S1" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="R1" s="9" t="s">
+      <c r="T1" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="S1" s="9" t="s">
+      <c r="U1" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="T1" s="9" t="s">
+      <c r="V1" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="U1" s="9" t="s">
+      <c r="W1" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="V1" s="9" t="s">
+      <c r="X1" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="W1" s="9" t="s">
+      <c r="Y1" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="X1" s="9" t="s">
+      <c r="Z1" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="Y1" s="9" t="s">
+      <c r="AA1" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="Z1" s="9" t="s">
+      <c r="AB1" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="AA1" s="9" t="s">
+      <c r="AC1" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="AB1" s="9" t="s">
+      <c r="AD1" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="AC1" s="9" t="s">
+      <c r="AE1" s="9" t="s">
         <v>34</v>
-      </c>
-      <c r="AD1" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="AE1" s="9" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="2" spans="1:31">
       <c r="A2" s="9" t="s">
-        <v>5</v>
+        <v>35</v>
       </c>
       <c r="B2" s="9"/>
       <c r="C2" s="9"/>
@@ -4899,11 +8046,17 @@
         <v>4</v>
       </c>
       <c r="AD6">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AE6">
-        <v>5</v>
-      </c>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:31">
+      <c r="G7" s="1"/>
+      <c r="H7" s="1"/>
+      <c r="AB7" s="1"/>
+      <c r="AC7" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
@@ -4919,112 +8072,111 @@
   <dimension ref="A1:AE5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J25" sqref="J25"/>
+      <selection activeCell="AG5" sqref="AG5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="34" customWidth="1"/>
-    <col min="2" max="10" width="9.296875" customWidth="1"/>
-    <col min="11" max="31" width="10.296875" customWidth="1"/>
+    <col min="2" max="31" width="3.375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:31">
       <c r="A1" s="13" t="s">
-        <v>4</v>
+        <v>36</v>
       </c>
       <c r="B1" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="C1" s="14" t="s">
+      <c r="E1" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="D1" s="14" t="s">
+      <c r="F1" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="E1" s="14" t="s">
+      <c r="G1" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="F1" s="14" t="s">
+      <c r="H1" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="G1" s="14" t="s">
+      <c r="I1" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="H1" s="14" t="s">
+      <c r="J1" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="I1" s="14" t="s">
+      <c r="K1" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="J1" s="14" t="s">
+      <c r="L1" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="K1" s="14" t="s">
+      <c r="M1" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="L1" s="14" t="s">
+      <c r="N1" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="M1" s="14" t="s">
+      <c r="O1" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="N1" s="14" t="s">
+      <c r="P1" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="O1" s="14" t="s">
+      <c r="Q1" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="P1" s="14" t="s">
+      <c r="R1" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="Q1" s="14" t="s">
+      <c r="S1" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="R1" s="14" t="s">
+      <c r="T1" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="S1" s="14" t="s">
+      <c r="U1" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="T1" s="14" t="s">
+      <c r="V1" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="U1" s="14" t="s">
+      <c r="W1" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="V1" s="14" t="s">
+      <c r="X1" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="W1" s="14" t="s">
+      <c r="Y1" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="X1" s="14" t="s">
+      <c r="Z1" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="Y1" s="14" t="s">
+      <c r="AA1" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="Z1" s="14" t="s">
+      <c r="AB1" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="AA1" s="14" t="s">
+      <c r="AC1" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="AB1" s="14" t="s">
+      <c r="AD1" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="AC1" s="14" t="s">
+      <c r="AE1" s="15" t="s">
         <v>33</v>
       </c>
-      <c r="AD1" s="14" t="s">
-        <v>34</v>
-      </c>
-      <c r="AE1" s="15" t="s">
-        <v>35</v>
-      </c>
     </row>
-    <row r="2" spans="1:31" s="6" customFormat="1">
+    <row r="2" spans="1:31" s="6" customFormat="1" ht="15">
       <c r="A2" s="10" t="s">
         <v>0</v>
       </c>
@@ -5119,7 +8271,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="3" spans="1:31">
+    <row r="3" spans="1:31" ht="15">
       <c r="A3" s="10" t="s">
         <v>2</v>
       </c>
@@ -5214,7 +8366,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:31">
+    <row r="4" spans="1:31" ht="15">
       <c r="A4" s="10" t="s">
         <v>1</v>
       </c>
@@ -5258,16 +8410,16 @@
         <v>1</v>
       </c>
       <c r="O4" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P4" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Q4" s="8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R4" s="8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="S4" s="2">
         <v>2</v>
@@ -5309,7 +8461,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:31">
+    <row r="5" spans="1:31" ht="15">
       <c r="A5" s="16" t="s">
         <v>3</v>
       </c>
@@ -5403,6 +8555,1078 @@
       <c r="AE5" s="19">
         <v>3</v>
       </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <drawing r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{526317DA-0A20-4796-B00D-D980C3BC987C}">
+  <dimension ref="A1:AE6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25"/>
+  <cols>
+    <col min="1" max="1" width="22.875" bestFit="1" customWidth="1"/>
+    <col min="2" max="31" width="3.25" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:31">
+      <c r="A1" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="G1" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="I1" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="J1" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="K1" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="L1" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="M1" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="N1" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="O1" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="P1" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q1" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="R1" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="S1" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="T1" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="U1" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="V1" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="W1" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="X1" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="Y1" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="Z1" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="AA1" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="AB1" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="AC1" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="AD1" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="AE1" s="9" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="2" spans="1:31">
+      <c r="A2" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="B2" s="9"/>
+      <c r="C2" s="9"/>
+      <c r="D2" s="9"/>
+      <c r="E2" s="9"/>
+      <c r="F2" s="9"/>
+      <c r="G2" s="9"/>
+      <c r="H2" s="9"/>
+      <c r="I2" s="9"/>
+      <c r="J2" s="9"/>
+      <c r="K2" s="9"/>
+      <c r="L2" s="9"/>
+      <c r="M2" s="9"/>
+      <c r="N2" s="9"/>
+      <c r="O2" s="9"/>
+      <c r="P2" s="9"/>
+      <c r="Q2" s="9"/>
+      <c r="R2" s="9"/>
+      <c r="S2" s="9"/>
+      <c r="T2" s="9"/>
+      <c r="U2" s="9"/>
+      <c r="V2" s="9"/>
+      <c r="W2" s="9"/>
+      <c r="X2" s="9"/>
+      <c r="Y2" s="9"/>
+      <c r="Z2" s="9"/>
+      <c r="AA2" s="9"/>
+      <c r="AB2" s="9"/>
+      <c r="AC2" s="9"/>
+      <c r="AD2" s="9"/>
+      <c r="AE2" s="9"/>
+    </row>
+    <row r="3" spans="1:31">
+      <c r="A3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3">
+        <v>2</v>
+      </c>
+      <c r="D3">
+        <v>3</v>
+      </c>
+      <c r="E3">
+        <v>4</v>
+      </c>
+      <c r="F3">
+        <v>5</v>
+      </c>
+      <c r="G3" s="1">
+        <v>6</v>
+      </c>
+      <c r="H3" s="1">
+        <v>7</v>
+      </c>
+      <c r="I3">
+        <v>8</v>
+      </c>
+      <c r="J3">
+        <v>9</v>
+      </c>
+      <c r="K3">
+        <v>10</v>
+      </c>
+      <c r="L3">
+        <v>11</v>
+      </c>
+      <c r="M3">
+        <v>12</v>
+      </c>
+      <c r="N3" s="1">
+        <v>13</v>
+      </c>
+      <c r="O3" s="1">
+        <v>14</v>
+      </c>
+      <c r="P3">
+        <v>15</v>
+      </c>
+      <c r="Q3">
+        <v>16</v>
+      </c>
+      <c r="R3">
+        <v>17</v>
+      </c>
+      <c r="S3">
+        <v>18</v>
+      </c>
+      <c r="T3">
+        <v>19</v>
+      </c>
+      <c r="U3" s="1">
+        <v>20</v>
+      </c>
+      <c r="V3" s="1">
+        <v>21</v>
+      </c>
+      <c r="W3">
+        <v>22</v>
+      </c>
+      <c r="X3">
+        <v>23</v>
+      </c>
+      <c r="Y3">
+        <v>24</v>
+      </c>
+      <c r="Z3">
+        <v>25</v>
+      </c>
+      <c r="AA3">
+        <v>26</v>
+      </c>
+      <c r="AB3" s="1">
+        <v>27</v>
+      </c>
+      <c r="AC3" s="1">
+        <v>28</v>
+      </c>
+      <c r="AD3">
+        <v>29</v>
+      </c>
+      <c r="AE3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="4" spans="1:31">
+      <c r="A4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>4</v>
+      </c>
+      <c r="C4">
+        <v>4</v>
+      </c>
+      <c r="D4">
+        <v>4</v>
+      </c>
+      <c r="E4">
+        <v>4</v>
+      </c>
+      <c r="F4">
+        <v>4</v>
+      </c>
+      <c r="G4" s="1">
+        <v>4</v>
+      </c>
+      <c r="H4" s="1">
+        <v>4</v>
+      </c>
+      <c r="I4">
+        <v>4</v>
+      </c>
+      <c r="J4">
+        <v>4</v>
+      </c>
+      <c r="K4">
+        <v>4</v>
+      </c>
+      <c r="L4">
+        <v>4</v>
+      </c>
+      <c r="M4">
+        <v>4</v>
+      </c>
+      <c r="N4" s="1">
+        <v>4</v>
+      </c>
+      <c r="O4" s="1">
+        <v>4</v>
+      </c>
+      <c r="P4">
+        <v>4</v>
+      </c>
+      <c r="Q4">
+        <v>4</v>
+      </c>
+      <c r="R4">
+        <v>4</v>
+      </c>
+      <c r="S4">
+        <v>4</v>
+      </c>
+      <c r="T4">
+        <v>4</v>
+      </c>
+      <c r="U4" s="1">
+        <v>4</v>
+      </c>
+      <c r="V4" s="1">
+        <v>4</v>
+      </c>
+      <c r="W4">
+        <v>4</v>
+      </c>
+      <c r="X4">
+        <v>4</v>
+      </c>
+      <c r="Y4">
+        <v>4</v>
+      </c>
+      <c r="Z4">
+        <v>4</v>
+      </c>
+      <c r="AA4">
+        <v>4</v>
+      </c>
+      <c r="AB4" s="1">
+        <v>4</v>
+      </c>
+      <c r="AC4" s="1">
+        <v>4</v>
+      </c>
+      <c r="AD4">
+        <v>4</v>
+      </c>
+      <c r="AE4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:31">
+      <c r="A5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B5">
+        <v>1</v>
+      </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
+      <c r="D5">
+        <v>1</v>
+      </c>
+      <c r="E5">
+        <v>1</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+      <c r="G5" s="1">
+        <v>1</v>
+      </c>
+      <c r="H5" s="1">
+        <v>1</v>
+      </c>
+      <c r="I5">
+        <v>1</v>
+      </c>
+      <c r="J5">
+        <v>1</v>
+      </c>
+      <c r="K5">
+        <v>1</v>
+      </c>
+      <c r="L5">
+        <v>1</v>
+      </c>
+      <c r="M5">
+        <v>2</v>
+      </c>
+      <c r="N5">
+        <v>2</v>
+      </c>
+      <c r="O5">
+        <v>2</v>
+      </c>
+      <c r="P5">
+        <v>2</v>
+      </c>
+      <c r="Q5">
+        <v>2</v>
+      </c>
+      <c r="R5">
+        <v>2</v>
+      </c>
+      <c r="S5">
+        <v>2</v>
+      </c>
+      <c r="T5">
+        <v>3</v>
+      </c>
+      <c r="U5">
+        <v>3</v>
+      </c>
+      <c r="V5">
+        <v>3</v>
+      </c>
+      <c r="W5">
+        <v>3</v>
+      </c>
+      <c r="X5">
+        <v>3</v>
+      </c>
+      <c r="Y5">
+        <v>3</v>
+      </c>
+      <c r="Z5">
+        <v>3</v>
+      </c>
+      <c r="AA5">
+        <v>4</v>
+      </c>
+      <c r="AB5" s="1">
+        <v>4</v>
+      </c>
+      <c r="AC5" s="1">
+        <v>4</v>
+      </c>
+      <c r="AD5">
+        <v>4</v>
+      </c>
+      <c r="AE5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:31">
+      <c r="A6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6">
+        <v>1</v>
+      </c>
+      <c r="C6">
+        <v>1</v>
+      </c>
+      <c r="D6">
+        <v>1</v>
+      </c>
+      <c r="E6">
+        <v>1</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6">
+        <v>1</v>
+      </c>
+      <c r="H6">
+        <v>1</v>
+      </c>
+      <c r="I6">
+        <v>2</v>
+      </c>
+      <c r="J6">
+        <v>2</v>
+      </c>
+      <c r="K6">
+        <v>2</v>
+      </c>
+      <c r="L6">
+        <v>2</v>
+      </c>
+      <c r="M6">
+        <v>2</v>
+      </c>
+      <c r="N6">
+        <v>2</v>
+      </c>
+      <c r="O6">
+        <v>2</v>
+      </c>
+      <c r="P6">
+        <v>3</v>
+      </c>
+      <c r="Q6">
+        <v>3</v>
+      </c>
+      <c r="R6">
+        <v>3</v>
+      </c>
+      <c r="S6">
+        <v>3</v>
+      </c>
+      <c r="T6">
+        <v>3</v>
+      </c>
+      <c r="U6">
+        <v>3</v>
+      </c>
+      <c r="V6">
+        <v>3</v>
+      </c>
+      <c r="W6">
+        <v>4</v>
+      </c>
+      <c r="X6">
+        <v>4</v>
+      </c>
+      <c r="Y6">
+        <v>4</v>
+      </c>
+      <c r="Z6">
+        <v>4</v>
+      </c>
+      <c r="AA6">
+        <v>4</v>
+      </c>
+      <c r="AB6">
+        <v>4</v>
+      </c>
+      <c r="AC6">
+        <v>4</v>
+      </c>
+      <c r="AD6">
+        <v>4</v>
+      </c>
+      <c r="AE6">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <drawing r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2D10838A-511F-423D-918B-B46C14441A88}">
+  <dimension ref="A1:AE7"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A7" sqref="A7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25"/>
+  <cols>
+    <col min="1" max="1" width="34.125" bestFit="1" customWidth="1"/>
+    <col min="2" max="31" width="3.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:31">
+      <c r="A1" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="G1" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="I1" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="J1" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="K1" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="L1" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="M1" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="N1" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="O1" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="P1" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q1" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="R1" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="S1" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="T1" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="U1" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="V1" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="W1" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="X1" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="Y1" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="Z1" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="AA1" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="AB1" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="AC1" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="AD1" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="AE1" s="9" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="2" spans="1:31">
+      <c r="A2" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="B2" s="9"/>
+      <c r="C2" s="9"/>
+      <c r="D2" s="9"/>
+      <c r="E2" s="9"/>
+      <c r="F2" s="9"/>
+      <c r="G2" s="9"/>
+      <c r="H2" s="9"/>
+      <c r="I2" s="9"/>
+      <c r="J2" s="9"/>
+      <c r="K2" s="9"/>
+      <c r="L2" s="9"/>
+      <c r="M2" s="9"/>
+      <c r="N2" s="9"/>
+      <c r="O2" s="9"/>
+      <c r="P2" s="9"/>
+      <c r="Q2" s="9"/>
+      <c r="R2" s="9"/>
+      <c r="S2" s="9"/>
+      <c r="T2" s="9"/>
+      <c r="U2" s="9"/>
+      <c r="V2" s="9"/>
+      <c r="W2" s="9"/>
+      <c r="X2" s="9"/>
+      <c r="Y2" s="9"/>
+      <c r="Z2" s="9"/>
+      <c r="AA2" s="9"/>
+      <c r="AB2" s="9"/>
+      <c r="AC2" s="9"/>
+      <c r="AD2" s="9"/>
+      <c r="AE2" s="9"/>
+    </row>
+    <row r="3" spans="1:31">
+      <c r="A3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3">
+        <v>2</v>
+      </c>
+      <c r="D3">
+        <v>3</v>
+      </c>
+      <c r="E3">
+        <v>4</v>
+      </c>
+      <c r="F3">
+        <v>5</v>
+      </c>
+      <c r="G3" s="1">
+        <v>6</v>
+      </c>
+      <c r="H3" s="1">
+        <v>7</v>
+      </c>
+      <c r="I3">
+        <v>8</v>
+      </c>
+      <c r="J3">
+        <v>9</v>
+      </c>
+      <c r="K3">
+        <v>10</v>
+      </c>
+      <c r="L3">
+        <v>11</v>
+      </c>
+      <c r="M3">
+        <v>12</v>
+      </c>
+      <c r="N3" s="1">
+        <v>13</v>
+      </c>
+      <c r="O3" s="1">
+        <v>14</v>
+      </c>
+      <c r="P3">
+        <v>15</v>
+      </c>
+      <c r="Q3">
+        <v>16</v>
+      </c>
+      <c r="R3">
+        <v>17</v>
+      </c>
+      <c r="S3">
+        <v>18</v>
+      </c>
+      <c r="T3">
+        <v>19</v>
+      </c>
+      <c r="U3" s="1">
+        <v>20</v>
+      </c>
+      <c r="V3" s="1">
+        <v>21</v>
+      </c>
+      <c r="W3">
+        <v>22</v>
+      </c>
+      <c r="X3">
+        <v>23</v>
+      </c>
+      <c r="Y3">
+        <v>24</v>
+      </c>
+      <c r="Z3">
+        <v>25</v>
+      </c>
+      <c r="AA3">
+        <v>26</v>
+      </c>
+      <c r="AB3" s="1">
+        <v>27</v>
+      </c>
+      <c r="AC3" s="1">
+        <v>28</v>
+      </c>
+      <c r="AD3">
+        <v>29</v>
+      </c>
+      <c r="AE3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="4" spans="1:31">
+      <c r="A4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>4</v>
+      </c>
+      <c r="C4">
+        <v>4</v>
+      </c>
+      <c r="D4">
+        <v>4</v>
+      </c>
+      <c r="E4">
+        <v>4</v>
+      </c>
+      <c r="F4">
+        <v>4</v>
+      </c>
+      <c r="G4" s="1">
+        <v>4</v>
+      </c>
+      <c r="H4" s="1">
+        <v>4</v>
+      </c>
+      <c r="I4">
+        <v>4</v>
+      </c>
+      <c r="J4">
+        <v>4</v>
+      </c>
+      <c r="K4">
+        <v>4</v>
+      </c>
+      <c r="L4">
+        <v>4</v>
+      </c>
+      <c r="M4">
+        <v>4</v>
+      </c>
+      <c r="N4" s="1">
+        <v>4</v>
+      </c>
+      <c r="O4" s="1">
+        <v>4</v>
+      </c>
+      <c r="P4">
+        <v>4</v>
+      </c>
+      <c r="Q4">
+        <v>4</v>
+      </c>
+      <c r="R4">
+        <v>4</v>
+      </c>
+      <c r="S4">
+        <v>4</v>
+      </c>
+      <c r="T4">
+        <v>4</v>
+      </c>
+      <c r="U4" s="1">
+        <v>4</v>
+      </c>
+      <c r="V4" s="1">
+        <v>4</v>
+      </c>
+      <c r="W4">
+        <v>4</v>
+      </c>
+      <c r="X4">
+        <v>4</v>
+      </c>
+      <c r="Y4">
+        <v>4</v>
+      </c>
+      <c r="Z4">
+        <v>4</v>
+      </c>
+      <c r="AA4">
+        <v>4</v>
+      </c>
+      <c r="AB4" s="1">
+        <v>4</v>
+      </c>
+      <c r="AC4" s="1">
+        <v>4</v>
+      </c>
+      <c r="AD4">
+        <v>4</v>
+      </c>
+      <c r="AE4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:31">
+      <c r="A5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B5">
+        <v>0</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+      <c r="G5" s="1">
+        <v>1</v>
+      </c>
+      <c r="H5" s="1">
+        <v>1</v>
+      </c>
+      <c r="I5">
+        <v>1</v>
+      </c>
+      <c r="J5">
+        <v>1</v>
+      </c>
+      <c r="K5">
+        <v>1</v>
+      </c>
+      <c r="L5">
+        <v>1</v>
+      </c>
+      <c r="M5">
+        <v>2</v>
+      </c>
+      <c r="N5">
+        <v>2</v>
+      </c>
+      <c r="O5">
+        <v>2</v>
+      </c>
+      <c r="P5">
+        <v>2</v>
+      </c>
+      <c r="Q5">
+        <v>2</v>
+      </c>
+      <c r="R5">
+        <v>2</v>
+      </c>
+      <c r="S5">
+        <v>2</v>
+      </c>
+      <c r="T5">
+        <v>3</v>
+      </c>
+      <c r="U5">
+        <v>3</v>
+      </c>
+      <c r="V5">
+        <v>3</v>
+      </c>
+      <c r="W5">
+        <v>3</v>
+      </c>
+      <c r="X5">
+        <v>3</v>
+      </c>
+      <c r="Y5">
+        <v>3</v>
+      </c>
+      <c r="Z5">
+        <v>3</v>
+      </c>
+      <c r="AA5">
+        <v>4</v>
+      </c>
+      <c r="AB5" s="1">
+        <v>4</v>
+      </c>
+      <c r="AC5" s="1">
+        <v>4</v>
+      </c>
+      <c r="AD5">
+        <v>4</v>
+      </c>
+      <c r="AE5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:31">
+      <c r="A6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6">
+        <v>1</v>
+      </c>
+      <c r="C6">
+        <v>1</v>
+      </c>
+      <c r="D6">
+        <v>1</v>
+      </c>
+      <c r="E6">
+        <v>1</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6">
+        <v>1</v>
+      </c>
+      <c r="H6">
+        <v>1</v>
+      </c>
+      <c r="I6">
+        <v>2</v>
+      </c>
+      <c r="J6">
+        <v>2</v>
+      </c>
+      <c r="K6">
+        <v>2</v>
+      </c>
+      <c r="L6">
+        <v>2</v>
+      </c>
+      <c r="M6">
+        <v>2</v>
+      </c>
+      <c r="N6">
+        <v>2</v>
+      </c>
+      <c r="O6">
+        <v>2</v>
+      </c>
+      <c r="P6">
+        <v>3</v>
+      </c>
+      <c r="Q6">
+        <v>3</v>
+      </c>
+      <c r="R6">
+        <v>3</v>
+      </c>
+      <c r="S6">
+        <v>3</v>
+      </c>
+      <c r="T6">
+        <v>3</v>
+      </c>
+      <c r="U6">
+        <v>3</v>
+      </c>
+      <c r="V6">
+        <v>3</v>
+      </c>
+      <c r="W6">
+        <v>4</v>
+      </c>
+      <c r="X6">
+        <v>4</v>
+      </c>
+      <c r="Y6">
+        <v>4</v>
+      </c>
+      <c r="Z6">
+        <v>4</v>
+      </c>
+      <c r="AA6">
+        <v>4</v>
+      </c>
+      <c r="AB6">
+        <v>4</v>
+      </c>
+      <c r="AC6">
+        <v>4</v>
+      </c>
+      <c r="AD6">
+        <v>4</v>
+      </c>
+      <c r="AE6">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:31">
+      <c r="G7" s="1"/>
+      <c r="H7" s="1"/>
+      <c r="AB7" s="1"/>
+      <c r="AC7" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
